--- a/Nuru bayan int school.xlsx
+++ b/Nuru bayan int school.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
